--- a/Metadatakatalog/SQL och db/relationsdatabas skiss.xlsx
+++ b/Metadatakatalog/SQL och db/relationsdatabas skiss.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabr4821\Box Sync\SLOSH dokumentationsprojekt\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabr4821\Documents\GitHub\REWHARDpilot\Metadatakatalog\SQL och db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6000" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Relationsdatabasen" sheetId="2" r:id="rId1"/>
+    <sheet name="Enkel variabel" sheetId="3" r:id="rId2"/>
+    <sheet name="Komplex variabel" sheetId="4" r:id="rId3"/>
+    <sheet name="Enkel tidsserie" sheetId="5" r:id="rId4"/>
+    <sheet name="Komplex tidsserie" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,47 +27,552 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marcus Brafors</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: variabel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: enkät</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: enkättext</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Begrepp_stor: begrepp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kodlistor_stor: kod</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kodlistor_stor: svarstext</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Frekvenstabell: frekvens</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marcus Brafors</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: variabel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: enkät</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: beskrivning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Begrepp_stor: begrepp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Variabler: variabel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Begrepp_stor: begrepp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Begrepp_stor: variabel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marcus Brafors</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier_stor: tidsserie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier_stor: variabel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marcus Brafors</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier_stor: tidsserie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier: beskrivning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier_stor: tidsserie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserie_stor: tidsserie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcus Brafors:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tidsserier_stor: variabel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
-  <si>
-    <t>1NF</t>
-  </si>
-  <si>
-    <t>2NF</t>
-  </si>
-  <si>
-    <t>3NF</t>
-  </si>
-  <si>
-    <r>
-      <t>A table follows first normal form if for every row and column intersection (a cell in a table) in the table, there exists a single value and never a list of values. This is known as the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>atomic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>rule. Use the one-to-many relationship to follow 1NF.</t>
-    </r>
-  </si>
-  <si>
-    <t>A table follows second normal form if it is 1NF and every non-key column is fully dependent on the primary key. This also applies when a primary key has multiple columns, every non-key column should still depend on the entire set and not part of it.</t>
-  </si>
-  <si>
-    <t>A table is 3NF if it is 2NF and the non-key columns are independent of each other (discount is dependent on price).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
   <si>
     <t>VARIABEL</t>
   </si>
@@ -153,6 +662,144 @@
   </si>
   <si>
     <t>parent</t>
+  </si>
+  <si>
+    <t>loadtime_7</t>
+  </si>
+  <si>
+    <t>På grund av den höga arbetsbelastningen arbetar jag ofta under stor tidspress.</t>
+  </si>
+  <si>
+    <t>Indextermer</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Stämmer helt och hållet</t>
+  </si>
+  <si>
+    <t>Stämmer ganska bra</t>
+  </si>
+  <si>
+    <t>Stämmer inte särskilt bra</t>
+  </si>
+  <si>
+    <t>Stämmer inte alls</t>
+  </si>
+  <si>
+    <t>Frekvens</t>
+  </si>
+  <si>
+    <t>ERI_7</t>
+  </si>
+  <si>
+    <t>The model of effort-reward imbalance (ERI) claims that failed reciprocity in terms of high efforts spent and low rewards received in turn is likely to elicit recurrent negative emotions and sustained stress responses in exposed people. Conversely, positive emotions evoked by appropriate social rewards promote well-being, health and survival.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>interrup_7</t>
+  </si>
+  <si>
+    <t>morework_7</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>manaackn_7</t>
+  </si>
+  <si>
+    <t>acknowle_7</t>
+  </si>
+  <si>
+    <t>advance_7</t>
+  </si>
+  <si>
+    <t>salaryok_7</t>
+  </si>
+  <si>
+    <t>possprom_7</t>
+  </si>
+  <si>
+    <t>impair_7</t>
+  </si>
+  <si>
+    <t>workthre_7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>hotelser</t>
+  </si>
+  <si>
+    <t>hotelser1</t>
+  </si>
+  <si>
+    <t>hotelser2</t>
+  </si>
+  <si>
+    <t>hotelser3</t>
+  </si>
+  <si>
+    <t>loadtime1</t>
+  </si>
+  <si>
+    <t>interrup1</t>
+  </si>
+  <si>
+    <t>morework1</t>
+  </si>
+  <si>
+    <t>manaackn1</t>
+  </si>
+  <si>
+    <t>manaackn2</t>
+  </si>
+  <si>
+    <t>acknowle1</t>
+  </si>
+  <si>
+    <t>acknowle2</t>
+  </si>
+  <si>
+    <t>advance1</t>
+  </si>
+  <si>
+    <t>advance2</t>
+  </si>
+  <si>
+    <t>salaryok1</t>
+  </si>
+  <si>
+    <t>salaryok2</t>
+  </si>
+  <si>
+    <t>possprom1</t>
+  </si>
+  <si>
+    <t>impair1</t>
+  </si>
+  <si>
+    <t>workthre1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOSH 18 working </t>
+  </si>
+  <si>
+    <t>SLOSH 18 working</t>
   </si>
 </sst>
 </file>
@@ -168,32 +815,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,21 +857,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -427,45 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -484,44 +1081,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -530,56 +1128,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,308 +1466,1051 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="18" width="10.85546875" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="36" t="s">
+    <row r="1" spans="1:25" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="11"/>
+      <c r="L7" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="11"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="13"/>
-      <c r="L7" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="3" t="s">
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="I9" s="11"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="13" t="s">
-        <v>18</v>
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
       <c r="H11"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="16"/>
       <c r="F12"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="16"/>
       <c r="H12"/>
-      <c r="O12" s="23" t="s">
-        <v>27</v>
+      <c r="O12" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="16"/>
       <c r="F13"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="11" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="R13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="16"/>
       <c r="F14"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="16"/>
       <c r="H14"/>
-      <c r="O14" s="14"/>
-      <c r="X14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="O14" s="12"/>
+      <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15" spans="1:25" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15"/>
-      <c r="C15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="X15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="14"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="13"/>
-      <c r="L18" s="22" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="13"/>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="11"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="11"/>
+      <c r="L18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="11"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="11"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="L19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="L19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>30</v>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:16" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:16" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1156</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3256</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1124</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="22">
+        <v>500</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>2006</v>
+      </c>
+      <c r="D1">
+        <v>2008</v>
+      </c>
+      <c r="E1">
+        <v>2010</v>
+      </c>
+      <c r="F1">
+        <v>2012</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="D3">
+        <v>2006</v>
+      </c>
+      <c r="E3">
+        <v>2008</v>
+      </c>
+      <c r="F3">
+        <v>2010</v>
+      </c>
+      <c r="G3">
+        <v>2012</v>
+      </c>
+      <c r="H3">
+        <v>2014</v>
+      </c>
+      <c r="I3">
+        <v>2016</v>
+      </c>
+      <c r="J3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>